--- a/Data/template/Invoice_Tracker_yy.MM.dd_담당자이름.xlsx
+++ b/Data/template/Invoice_Tracker_yy.MM.dd_담당자이름.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09675F9D-5CD0-45BF-AD62-6BFD3A73AB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22432F1E-B927-4489-A12E-5C238C6E567E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,12 @@
     <definedName name="InvoiceNoDetails">"InvoiceDetails[Invoice No]"</definedName>
     <definedName name="rngInvoice">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Company Name</t>
   </si>
@@ -48,9 +46,6 @@
   </si>
   <si>
     <t>Lookup</t>
-  </si>
-  <si>
-    <t>3-456-1</t>
   </si>
   <si>
     <t>Invoice Date</t>
@@ -72,39 +67,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>3-456-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tailspin Toys </t>
-  </si>
-  <si>
-    <t>345 Cherry Street</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>098765</t>
-  </si>
-  <si>
-    <t>567 Walnut Lane</t>
-  </si>
-  <si>
-    <t>Moline</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Contoso, Ltd</t>
   </si>
   <si>
     <t>Numeric Code</t>
@@ -148,15 +110,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="00000"/>
-    <numFmt numFmtId="179" formatCode="_)@\ \ "/>
-    <numFmt numFmtId="180" formatCode="_)#;_)#;_)#;_)@"/>
-    <numFmt numFmtId="181" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="182" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="00000"/>
+    <numFmt numFmtId="178" formatCode="_)@\ \ "/>
+    <numFmt numFmtId="179" formatCode="_)#;_)#;_)#;_)@"/>
+    <numFmt numFmtId="180" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="181" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -349,13 +311,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -373,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -385,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -418,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -430,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -439,19 +401,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -463,28 +425,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,91 +465,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.749961851863155"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="185" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.749961851863155"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="185" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.749961851863155"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -620,9 +497,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -639,20 +513,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -671,15 +546,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="184" formatCode="&quot;₩&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -711,10 +624,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -749,9 +658,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -784,10 +690,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -820,9 +722,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -855,10 +754,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -889,10 +784,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -928,9 +819,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -974,8 +862,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.749961851863155"/>
+        <sz val="10"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -987,7 +875,14 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1023,9 +918,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1059,45 +951,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1114,7 +967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="_)@\ \ "/>
+      <numFmt numFmtId="178" formatCode="_)@\ \ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1129,10 +982,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="_)#;_)#;_)#;_)@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1166,7 +1015,60 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="_)@\ \ "/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="_)#;_)#;_)#;_)@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="_)@\ \ "/>
     </dxf>
     <dxf>
       <font>
@@ -1177,6 +1079,78 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2244,15 +2218,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B3EB2112-DCD1-4D0D-9B93-F18635088828}" name="InvoicesMain8" displayName="InvoicesMain8" ref="B3:H19" totalsRowCount="1" dataDxfId="37" totalsRowDxfId="36">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9CA4F30D-847A-41DF-93F5-4F69A4CB3252}" name="Invoice #" totalsRowLabel="Totals" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7AE8B48C-9F1E-4491-A87A-BCD7611D9036}" name="Company" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{9CA4F30D-847A-41DF-93F5-4F69A4CB3252}" name="Invoice #" totalsRowLabel="Totals" dataDxfId="35" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7AE8B48C-9F1E-4491-A87A-BCD7611D9036}" name="Company" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="5">
       <totalsRowFormula>"Total Invoices: "&amp;SUBTOTAL(103,InvoicesMain8[Invoice '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2603F69B-6F77-4341-BDA4-F9E48F9BD7CC}" name="Invoice Date" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A4C55874-1C70-43FF-A0BD-F88AB3EBD138}" name="Quantity" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{27A43D10-F0A2-453F-B970-7110DF7C3CE9}" name="Unit Price" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{31F16485-5D77-480A-9560-F7ED16A121DF}" name="Invoice Total" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{307E521F-6C93-431F-8ABF-F90A3A2B802C}" name="Notes" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2603F69B-6F77-4341-BDA4-F9E48F9BD7CC}" name="Invoice Date" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A4C55874-1C70-43FF-A0BD-F88AB3EBD138}" name="Quantity" dataDxfId="32" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{27A43D10-F0A2-453F-B970-7110DF7C3CE9}" name="Unit Price" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{31F16485-5D77-480A-9560-F7ED16A121DF}" name="Invoice Total" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{307E521F-6C93-431F-8ABF-F90A3A2B802C}" name="Notes" dataDxfId="29" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sales Invoice Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2266,20 +2240,20 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4B838EDA-2075-48FA-8442-FB53319A2932}" name="CustomerList7" displayName="CustomerList7" ref="B3:K19" totalsRowCount="1">
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{803D8BF2-E51C-41E3-953D-41ECC2B3C8A5}" name="Lookup" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="9" xr3:uid="{803D8BF2-E51C-41E3-953D-41ECC2B3C8A5}" name="Lookup" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="16">
       <calculatedColumnFormula>C4&amp; " - "&amp;D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{EDCB7EC9-4DF5-4500-A3D3-D462FAF782B1}" name="Company #" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{EDCB7EC9-4DF5-4500-A3D3-D462FAF782B1}" name="Company #" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="15">
       <totalsRowFormula>"Total Customers: "&amp;SUBTOTAL(103,CustomerList7[Company '#])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E871AAEA-8A3B-4351-A19A-D6F193AB053C}" name="Company Name" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{3EA65673-CCDF-4E02-82B2-9566E4293A6F}" name="Address" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{9076342F-44E3-4247-84C7-6FF2BFFAA449}" name="City" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{13EE730E-29EC-4F9A-93AC-CB336D9959EF}" name="Country" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{356821BB-9E89-45A4-9A8F-18A20A3DA9BF}" name="Code" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{67935F93-53B3-4F25-B37A-5C42FBDF6631}" name="Numeric Code" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{609883AC-F58A-4597-9421-D283DD22666B}" name="I/E" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{89843DC8-83A8-47DF-A3E7-6843E9C716B6}" name="Remark" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E871AAEA-8A3B-4351-A19A-D6F193AB053C}" name="Company Name" dataDxfId="24" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3EA65673-CCDF-4E02-82B2-9566E4293A6F}" name="Address" dataDxfId="23" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{9076342F-44E3-4247-84C7-6FF2BFFAA449}" name="City" dataDxfId="22" totalsRowDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{13EE730E-29EC-4F9A-93AC-CB336D9959EF}" name="Country" dataDxfId="21" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{356821BB-9E89-45A4-9A8F-18A20A3DA9BF}" name="Code" dataDxfId="20" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{67935F93-53B3-4F25-B37A-5C42FBDF6631}" name="Numeric Code" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{609883AC-F58A-4597-9421-D283DD22666B}" name="I/E" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{89843DC8-83A8-47DF-A3E7-6843E9C716B6}" name="Remark" dataDxfId="17" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Sales Invoice Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2520,7 +2494,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2542,68 +2516,48 @@
     </row>
     <row r="2" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="38"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="39">
-        <v>43893</v>
-      </c>
-      <c r="E4" s="40">
-        <v>1</v>
-      </c>
-      <c r="F4" s="45">
-        <v>1</v>
-      </c>
-      <c r="G4" s="47">
-        <v>1</v>
-      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="38"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="39">
-        <v>43893</v>
-      </c>
-      <c r="E5" s="40">
-        <v>1</v>
-      </c>
-      <c r="F5" s="45">
-        <v>20</v>
-      </c>
-      <c r="G5" s="47">
-        <v>20</v>
-      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2725,21 +2679,21 @@
     </row>
     <row r="19" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="26" t="str">
         <f>"Total Invoices: "&amp;SUBTOTAL(103,InvoicesMain8[Invoice '#])</f>
-        <v>Total Invoices: 2</v>
+        <v>Total Invoices: 0</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="36"/>
       <c r="F19" s="46">
         <f>SUBTOTAL(109,InvoicesMain8[Unit Price])</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G19" s="46">
         <f>SUBTOTAL(109,InvoicesMain8[Invoice Total])</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H19" s="28"/>
     </row>
@@ -2767,7 +2721,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C4" sqref="C4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2789,7 +2743,7 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2797,7 +2751,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>0</v>
@@ -2809,45 +2763,33 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4" si="0">C4&amp; " - "&amp;D4</f>
-        <v xml:space="preserve">1 - Tailspin Toys </v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
@@ -2856,25 +2798,13 @@
         <f>#REF!&amp; " - "&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="14">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
@@ -3061,7 +2991,7 @@
     <row r="18" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="str">
         <f>C5&amp; " - "&amp;D5</f>
-        <v>2 - Contoso, Ltd</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
@@ -3075,11 +3005,11 @@
     </row>
     <row r="19" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="25" t="str">
         <f>"Total Customers: "&amp;SUBTOTAL(103,CustomerList7[Company '#])</f>
-        <v>Total Customers: 2</v>
+        <v>Total Customers: 0</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -3093,26 +3023,27 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="duplicateValues" dxfId="35" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D17">
-    <cfRule type="duplicateValues" dxfId="34" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="56"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3337,20 +3268,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63A445B-6F4E-403F-A36E-68D87D4B8C1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088E6A8D-8506-4921-9AAC-35C577A39F76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3375,9 +3304,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088E6A8D-8506-4921-9AAC-35C577A39F76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63A445B-6F4E-403F-A36E-68D87D4B8C1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>